--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Cntf-Il6st.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Cntf-Il6st.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,12 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>M1</t>
   </si>
   <si>
@@ -92,12 +98,6 @@
   </si>
   <si>
     <t>Il6st</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.692341400862012</v>
+        <v>0.2380766666666667</v>
       </c>
       <c r="H2">
-        <v>0.692341400862012</v>
+        <v>0.71423</v>
       </c>
       <c r="I2">
-        <v>0.1898621957460797</v>
+        <v>0.05067339502381486</v>
       </c>
       <c r="J2">
-        <v>0.1898621957460797</v>
+        <v>0.05067339502381486</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>26.1737723042941</v>
+        <v>50.45577166666666</v>
       </c>
       <c r="N2">
-        <v>26.1737723042941</v>
+        <v>151.367315</v>
       </c>
       <c r="O2">
-        <v>0.1113266536609365</v>
+        <v>0.18996722124408</v>
       </c>
       <c r="P2">
-        <v>0.1113266536609365</v>
+        <v>0.1899672212440799</v>
       </c>
       <c r="Q2">
-        <v>18.12118618299831</v>
+        <v>12.01234193249445</v>
       </c>
       <c r="R2">
-        <v>18.12118618299831</v>
+        <v>108.11107739245</v>
       </c>
       <c r="S2">
-        <v>0.02113672290912874</v>
+        <v>0.009626284043677701</v>
       </c>
       <c r="T2">
-        <v>0.02113672290912874</v>
+        <v>0.009626284043677696</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.692341400862012</v>
+        <v>0.2380766666666667</v>
       </c>
       <c r="H3">
-        <v>0.692341400862012</v>
+        <v>0.71423</v>
       </c>
       <c r="I3">
-        <v>0.1898621957460797</v>
+        <v>0.05067339502381486</v>
       </c>
       <c r="J3">
-        <v>0.1898621957460797</v>
+        <v>0.05067339502381486</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>148.258515378317</v>
+        <v>149.2656146666667</v>
       </c>
       <c r="N3">
-        <v>148.258515378317</v>
+        <v>447.796844</v>
       </c>
       <c r="O3">
-        <v>0.6305978443580588</v>
+        <v>0.5619887102876124</v>
       </c>
       <c r="P3">
-        <v>0.6305978443580588</v>
+        <v>0.5619887102876123</v>
       </c>
       <c r="Q3">
-        <v>102.6455082267462</v>
+        <v>35.53665998779111</v>
       </c>
       <c r="R3">
-        <v>102.6455082267462</v>
+        <v>319.82993989012</v>
       </c>
       <c r="S3">
-        <v>0.1197266913625657</v>
+        <v>0.02847787591532843</v>
       </c>
       <c r="T3">
-        <v>0.1197266913625657</v>
+        <v>0.02847787591532842</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.692341400862012</v>
+        <v>0.2380766666666667</v>
       </c>
       <c r="H4">
-        <v>0.692341400862012</v>
+        <v>0.71423</v>
       </c>
       <c r="I4">
-        <v>0.1898621957460797</v>
+        <v>0.05067339502381486</v>
       </c>
       <c r="J4">
-        <v>0.1898621957460797</v>
+        <v>0.05067339502381486</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>11.7503247625346</v>
+        <v>13.28522433333333</v>
       </c>
       <c r="N4">
-        <v>11.7503247625346</v>
+        <v>39.855673</v>
       </c>
       <c r="O4">
-        <v>0.04997844101469479</v>
+        <v>0.05001919635439596</v>
       </c>
       <c r="P4">
-        <v>0.04997844101469479</v>
+        <v>0.05001919635439595</v>
       </c>
       <c r="Q4">
-        <v>8.135236306676793</v>
+        <v>3.162901925198889</v>
       </c>
       <c r="R4">
-        <v>8.135236306676793</v>
+        <v>28.46611732679</v>
       </c>
       <c r="S4">
-        <v>0.009489016551015882</v>
+        <v>0.002534642495640067</v>
       </c>
       <c r="T4">
-        <v>0.009489016551015882</v>
+        <v>0.002534642495640066</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.692341400862012</v>
+        <v>0.2380766666666667</v>
       </c>
       <c r="H5">
-        <v>0.692341400862012</v>
+        <v>0.71423</v>
       </c>
       <c r="I5">
-        <v>0.1898621957460797</v>
+        <v>0.05067339502381486</v>
       </c>
       <c r="J5">
-        <v>0.1898621957460797</v>
+        <v>0.05067339502381486</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>17.0931556709254</v>
+        <v>17.42465066666666</v>
       </c>
       <c r="N5">
-        <v>17.0931556709254</v>
+        <v>52.27395199999999</v>
       </c>
       <c r="O5">
-        <v>0.07270346051865775</v>
+        <v>0.06560423830525379</v>
       </c>
       <c r="P5">
-        <v>0.07270346051865775</v>
+        <v>0.06560423830525378</v>
       </c>
       <c r="Q5">
-        <v>11.83429934236094</v>
+        <v>4.148402748551111</v>
       </c>
       <c r="R5">
-        <v>11.83429934236094</v>
+        <v>37.33562473696</v>
       </c>
       <c r="S5">
-        <v>0.01380363865241078</v>
+        <v>0.003324389482878612</v>
       </c>
       <c r="T5">
-        <v>0.01380363865241078</v>
+        <v>0.00332438948287861</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.692341400862012</v>
+        <v>0.2380766666666667</v>
       </c>
       <c r="H6">
-        <v>0.692341400862012</v>
+        <v>0.71423</v>
       </c>
       <c r="I6">
-        <v>0.1898621957460797</v>
+        <v>0.05067339502381486</v>
       </c>
       <c r="J6">
-        <v>0.1898621957460797</v>
+        <v>0.05067339502381486</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.79529511732927</v>
+        <v>3.820091</v>
       </c>
       <c r="N6">
-        <v>3.79529511732927</v>
+        <v>11.460273</v>
       </c>
       <c r="O6">
-        <v>0.016142782177357</v>
+        <v>0.01438273656706242</v>
       </c>
       <c r="P6">
-        <v>0.016142782177357</v>
+        <v>0.01438273656706242</v>
       </c>
       <c r="Q6">
-        <v>2.627639938216501</v>
+        <v>0.9094745316433335</v>
       </c>
       <c r="R6">
-        <v>2.627639938216501</v>
+        <v>8.185270784790001</v>
       </c>
       <c r="S6">
-        <v>0.003064904069643681</v>
+        <v>0.0007288220915862211</v>
       </c>
       <c r="T6">
-        <v>0.003064904069643681</v>
+        <v>0.0007288220915862209</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.692341400862012</v>
+        <v>0.2380766666666667</v>
       </c>
       <c r="H7">
-        <v>0.692341400862012</v>
+        <v>0.71423</v>
       </c>
       <c r="I7">
-        <v>0.1898621957460797</v>
+        <v>0.05067339502381486</v>
       </c>
       <c r="J7">
-        <v>0.1898621957460797</v>
+        <v>0.05067339502381486</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>28.0368057591466</v>
+        <v>31.35116233333333</v>
       </c>
       <c r="N7">
-        <v>28.0368057591466</v>
+        <v>94.053487</v>
       </c>
       <c r="O7">
-        <v>0.1192508182702952</v>
+        <v>0.1180378972415954</v>
       </c>
       <c r="P7">
-        <v>0.1192508182702952</v>
+        <v>0.1180378972415954</v>
       </c>
       <c r="Q7">
-        <v>19.41104137498368</v>
+        <v>7.463980224445557</v>
       </c>
       <c r="R7">
-        <v>19.41104137498368</v>
+        <v>67.17582202001</v>
       </c>
       <c r="S7">
-        <v>0.02264122220131497</v>
+        <v>0.00598138099470383</v>
       </c>
       <c r="T7">
-        <v>0.02264122220131497</v>
+        <v>0.005981380994703829</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>1.58556292553231</v>
+        <v>0.2776743333333334</v>
       </c>
       <c r="H8">
-        <v>1.58556292553231</v>
+        <v>0.8330230000000001</v>
       </c>
       <c r="I8">
-        <v>0.4348121579329634</v>
+        <v>0.05910155488137341</v>
       </c>
       <c r="J8">
-        <v>0.4348121579329634</v>
+        <v>0.05910155488137341</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>26.1737723042941</v>
+        <v>50.45577166666666</v>
       </c>
       <c r="N8">
-        <v>26.1737723042941</v>
+        <v>151.367315</v>
       </c>
       <c r="O8">
-        <v>0.1113266536609365</v>
+        <v>0.18996722124408</v>
       </c>
       <c r="P8">
-        <v>0.1113266536609365</v>
+        <v>0.1899672212440799</v>
       </c>
       <c r="Q8">
-        <v>41.50016298701311</v>
+        <v>14.01027276036056</v>
       </c>
       <c r="R8">
-        <v>41.50016298701311</v>
+        <v>126.092454843245</v>
       </c>
       <c r="S8">
-        <v>0.04840618251376742</v>
+        <v>0.011227358152019</v>
       </c>
       <c r="T8">
-        <v>0.04840618251376742</v>
+        <v>0.01122735815201899</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>1.58556292553231</v>
+        <v>0.2776743333333334</v>
       </c>
       <c r="H9">
-        <v>1.58556292553231</v>
+        <v>0.8330230000000001</v>
       </c>
       <c r="I9">
-        <v>0.4348121579329634</v>
+        <v>0.05910155488137341</v>
       </c>
       <c r="J9">
-        <v>0.4348121579329634</v>
+        <v>0.05910155488137341</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>148.258515378317</v>
+        <v>149.2656146666667</v>
       </c>
       <c r="N9">
-        <v>148.258515378317</v>
+        <v>447.796844</v>
       </c>
       <c r="O9">
-        <v>0.6305978443580588</v>
+        <v>0.5619887102876124</v>
       </c>
       <c r="P9">
-        <v>0.6305978443580588</v>
+        <v>0.5619887102876123</v>
       </c>
       <c r="Q9">
-        <v>235.0732053783213</v>
+        <v>41.44723004215689</v>
       </c>
       <c r="R9">
-        <v>235.0732053783213</v>
+        <v>373.0250703794121</v>
       </c>
       <c r="S9">
-        <v>0.2741916094932025</v>
+        <v>0.03321440660377559</v>
       </c>
       <c r="T9">
-        <v>0.2741916094932025</v>
+        <v>0.03321440660377558</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>1.58556292553231</v>
+        <v>0.2776743333333334</v>
       </c>
       <c r="H10">
-        <v>1.58556292553231</v>
+        <v>0.8330230000000001</v>
       </c>
       <c r="I10">
-        <v>0.4348121579329634</v>
+        <v>0.05910155488137341</v>
       </c>
       <c r="J10">
-        <v>0.4348121579329634</v>
+        <v>0.05910155488137341</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>11.7503247625346</v>
+        <v>13.28522433333333</v>
       </c>
       <c r="N10">
-        <v>11.7503247625346</v>
+        <v>39.855673</v>
       </c>
       <c r="O10">
-        <v>0.04997844101469479</v>
+        <v>0.05001919635439596</v>
       </c>
       <c r="P10">
-        <v>0.04997844101469479</v>
+        <v>0.05001919635439595</v>
       </c>
       <c r="Q10">
-        <v>18.63087930643911</v>
+        <v>3.688965809942111</v>
       </c>
       <c r="R10">
-        <v>18.63087930643911</v>
+        <v>33.200692289479</v>
       </c>
       <c r="S10">
-        <v>0.02173123378772477</v>
+        <v>0.002956212278461525</v>
       </c>
       <c r="T10">
-        <v>0.02173123378772477</v>
+        <v>0.002956212278461525</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>1.58556292553231</v>
+        <v>0.2776743333333334</v>
       </c>
       <c r="H11">
-        <v>1.58556292553231</v>
+        <v>0.8330230000000001</v>
       </c>
       <c r="I11">
-        <v>0.4348121579329634</v>
+        <v>0.05910155488137341</v>
       </c>
       <c r="J11">
-        <v>0.4348121579329634</v>
+        <v>0.05910155488137341</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>17.0931556709254</v>
+        <v>17.42465066666666</v>
       </c>
       <c r="N11">
-        <v>17.0931556709254</v>
+        <v>52.27395199999999</v>
       </c>
       <c r="O11">
-        <v>0.07270346051865775</v>
+        <v>0.06560423830525379</v>
       </c>
       <c r="P11">
-        <v>0.07270346051865775</v>
+        <v>0.06560423830525378</v>
       </c>
       <c r="Q11">
-        <v>27.10227391217167</v>
+        <v>4.838378257432889</v>
       </c>
       <c r="R11">
-        <v>27.10227391217167</v>
+        <v>43.545404316896</v>
       </c>
       <c r="S11">
-        <v>0.03161234855731158</v>
+        <v>0.003877312490648656</v>
       </c>
       <c r="T11">
-        <v>0.03161234855731158</v>
+        <v>0.003877312490648655</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
         <v>24</v>
       </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>1.58556292553231</v>
+        <v>0.2776743333333334</v>
       </c>
       <c r="H12">
-        <v>1.58556292553231</v>
+        <v>0.8330230000000001</v>
       </c>
       <c r="I12">
-        <v>0.4348121579329634</v>
+        <v>0.05910155488137341</v>
       </c>
       <c r="J12">
-        <v>0.4348121579329634</v>
+        <v>0.05910155488137341</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.79529511732927</v>
+        <v>3.820091</v>
       </c>
       <c r="N12">
-        <v>3.79529511732927</v>
+        <v>11.460273</v>
       </c>
       <c r="O12">
-        <v>0.016142782177357</v>
+        <v>0.01438273656706242</v>
       </c>
       <c r="P12">
-        <v>0.016142782177357</v>
+        <v>0.01438273656706242</v>
       </c>
       <c r="Q12">
-        <v>6.017679229491089</v>
+        <v>1.060741221697667</v>
       </c>
       <c r="R12">
-        <v>6.017679229491089</v>
+        <v>9.546670995279001</v>
       </c>
       <c r="S12">
-        <v>0.007019077953578375</v>
+        <v>0.0008500420945625759</v>
       </c>
       <c r="T12">
-        <v>0.007019077953578375</v>
+        <v>0.0008500420945625758</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>1.58556292553231</v>
+        <v>0.2776743333333334</v>
       </c>
       <c r="H13">
-        <v>1.58556292553231</v>
+        <v>0.8330230000000001</v>
       </c>
       <c r="I13">
-        <v>0.4348121579329634</v>
+        <v>0.05910155488137341</v>
       </c>
       <c r="J13">
-        <v>0.4348121579329634</v>
+        <v>0.05910155488137341</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>28.0368057591466</v>
+        <v>31.35116233333333</v>
       </c>
       <c r="N13">
-        <v>28.0368057591466</v>
+        <v>94.053487</v>
       </c>
       <c r="O13">
-        <v>0.1192508182702952</v>
+        <v>0.1180378972415954</v>
       </c>
       <c r="P13">
-        <v>0.1192508182702952</v>
+        <v>0.1180378972415954</v>
       </c>
       <c r="Q13">
-        <v>44.4541197620536</v>
+        <v>8.705413100133445</v>
       </c>
       <c r="R13">
-        <v>44.4541197620536</v>
+        <v>78.34871790120101</v>
       </c>
       <c r="S13">
-        <v>0.05185170562737872</v>
+        <v>0.006976223261906065</v>
       </c>
       <c r="T13">
-        <v>0.05185170562737872</v>
+        <v>0.006976223261906064</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.986863132142566</v>
+        <v>0.7172043333333334</v>
       </c>
       <c r="H14">
-        <v>0.986863132142566</v>
+        <v>2.151613</v>
       </c>
       <c r="I14">
-        <v>0.2706294913696557</v>
+        <v>0.1526532566363432</v>
       </c>
       <c r="J14">
-        <v>0.2706294913696557</v>
+        <v>0.1526532566363432</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>26.1737723042941</v>
+        <v>50.45577166666666</v>
       </c>
       <c r="N14">
-        <v>26.1737723042941</v>
+        <v>151.367315</v>
       </c>
       <c r="O14">
-        <v>0.1113266536609365</v>
+        <v>0.18996722124408</v>
       </c>
       <c r="P14">
-        <v>0.1113266536609365</v>
+        <v>0.1899672212440799</v>
       </c>
       <c r="Q14">
-        <v>25.82993091620202</v>
+        <v>36.18709808101056</v>
       </c>
       <c r="R14">
-        <v>25.82993091620202</v>
+        <v>325.683882729095</v>
       </c>
       <c r="S14">
-        <v>0.03012827565614505</v>
+        <v>0.02899911497706553</v>
       </c>
       <c r="T14">
-        <v>0.03012827565614505</v>
+        <v>0.02899911497706551</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.986863132142566</v>
+        <v>0.7172043333333334</v>
       </c>
       <c r="H15">
-        <v>0.986863132142566</v>
+        <v>2.151613</v>
       </c>
       <c r="I15">
-        <v>0.2706294913696557</v>
+        <v>0.1526532566363432</v>
       </c>
       <c r="J15">
-        <v>0.2706294913696557</v>
+        <v>0.1526532566363432</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>148.258515378317</v>
+        <v>149.2656146666667</v>
       </c>
       <c r="N15">
-        <v>148.258515378317</v>
+        <v>447.796844</v>
       </c>
       <c r="O15">
-        <v>0.6305978443580588</v>
+        <v>0.5619887102876124</v>
       </c>
       <c r="P15">
-        <v>0.6305978443580588</v>
+        <v>0.5619887102876123</v>
       </c>
       <c r="Q15">
-        <v>146.3108628530527</v>
+        <v>107.0539456565969</v>
       </c>
       <c r="R15">
-        <v>146.3108628530527</v>
+        <v>963.4855109093721</v>
       </c>
       <c r="S15">
-        <v>0.1706583738774227</v>
+        <v>0.0857894068182624</v>
       </c>
       <c r="T15">
-        <v>0.1706583738774227</v>
+        <v>0.08578940681826239</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.986863132142566</v>
+        <v>0.7172043333333334</v>
       </c>
       <c r="H16">
-        <v>0.986863132142566</v>
+        <v>2.151613</v>
       </c>
       <c r="I16">
-        <v>0.2706294913696557</v>
+        <v>0.1526532566363432</v>
       </c>
       <c r="J16">
-        <v>0.2706294913696557</v>
+        <v>0.1526532566363432</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>11.7503247625346</v>
+        <v>13.28522433333333</v>
       </c>
       <c r="N16">
-        <v>11.7503247625346</v>
+        <v>39.855673</v>
       </c>
       <c r="O16">
-        <v>0.04997844101469479</v>
+        <v>0.05001919635439596</v>
       </c>
       <c r="P16">
-        <v>0.04997844101469479</v>
+        <v>0.05001919635439595</v>
       </c>
       <c r="Q16">
-        <v>11.59596229884725</v>
+        <v>9.528220461172111</v>
       </c>
       <c r="R16">
-        <v>11.59596229884725</v>
+        <v>85.753984150549</v>
       </c>
       <c r="S16">
-        <v>0.01352564007125519</v>
+        <v>0.007635593217831247</v>
       </c>
       <c r="T16">
-        <v>0.01352564007125519</v>
+        <v>0.007635593217831246</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.986863132142566</v>
+        <v>0.7172043333333334</v>
       </c>
       <c r="H17">
-        <v>0.986863132142566</v>
+        <v>2.151613</v>
       </c>
       <c r="I17">
-        <v>0.2706294913696557</v>
+        <v>0.1526532566363432</v>
       </c>
       <c r="J17">
-        <v>0.2706294913696557</v>
+        <v>0.1526532566363432</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>17.0931556709254</v>
+        <v>17.42465066666666</v>
       </c>
       <c r="N17">
-        <v>17.0931556709254</v>
+        <v>52.27395199999999</v>
       </c>
       <c r="O17">
-        <v>0.07270346051865775</v>
+        <v>0.06560423830525379</v>
       </c>
       <c r="P17">
-        <v>0.07270346051865775</v>
+        <v>0.06560423830525378</v>
       </c>
       <c r="Q17">
-        <v>16.8686051436099</v>
+        <v>12.49703496495289</v>
       </c>
       <c r="R17">
-        <v>16.8686051436099</v>
+        <v>112.473314684576</v>
       </c>
       <c r="S17">
-        <v>0.01967570054097819</v>
+        <v>0.01001470062644372</v>
       </c>
       <c r="T17">
-        <v>0.01967570054097819</v>
+        <v>0.01001470062644372</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="C18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" t="s">
-        <v>22</v>
-      </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.986863132142566</v>
+        <v>0.7172043333333334</v>
       </c>
       <c r="H18">
-        <v>0.986863132142566</v>
+        <v>2.151613</v>
       </c>
       <c r="I18">
-        <v>0.2706294913696557</v>
+        <v>0.1526532566363432</v>
       </c>
       <c r="J18">
-        <v>0.2706294913696557</v>
+        <v>0.1526532566363432</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>3.79529511732927</v>
+        <v>3.820091</v>
       </c>
       <c r="N18">
-        <v>3.79529511732927</v>
+        <v>11.460273</v>
       </c>
       <c r="O18">
-        <v>0.016142782177357</v>
+        <v>0.01438273656706242</v>
       </c>
       <c r="P18">
-        <v>0.016142782177357</v>
+        <v>0.01438273656706242</v>
       </c>
       <c r="Q18">
-        <v>3.745436826892951</v>
+        <v>2.739785818927667</v>
       </c>
       <c r="R18">
-        <v>3.745436826892951</v>
+        <v>24.658072370349</v>
       </c>
       <c r="S18">
-        <v>0.004368712929949266</v>
+        <v>0.002195571576304697</v>
       </c>
       <c r="T18">
-        <v>0.004368712929949266</v>
+        <v>0.002195571576304697</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,61 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="D19" t="s">
-        <v>23</v>
-      </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.986863132142566</v>
+        <v>0.7172043333333334</v>
       </c>
       <c r="H19">
-        <v>0.986863132142566</v>
+        <v>2.151613</v>
       </c>
       <c r="I19">
-        <v>0.2706294913696557</v>
+        <v>0.1526532566363432</v>
       </c>
       <c r="J19">
-        <v>0.2706294913696557</v>
+        <v>0.1526532566363432</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>28.0368057591466</v>
+        <v>31.35116233333333</v>
       </c>
       <c r="N19">
-        <v>28.0368057591466</v>
+        <v>94.053487</v>
       </c>
       <c r="O19">
-        <v>0.1192508182702952</v>
+        <v>0.1180378972415954</v>
       </c>
       <c r="P19">
-        <v>0.1192508182702952</v>
+        <v>0.1180378972415954</v>
       </c>
       <c r="Q19">
-        <v>27.66848994674415</v>
+        <v>22.48518948050345</v>
       </c>
       <c r="R19">
-        <v>27.66848994674415</v>
+        <v>202.366705324531</v>
       </c>
       <c r="S19">
-        <v>0.03227278829390524</v>
+        <v>0.01801886942043556</v>
       </c>
       <c r="T19">
-        <v>0.03227278829390524</v>
+        <v>0.01801886942043556</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.381779439024247</v>
+        <v>1.672201</v>
       </c>
       <c r="H20">
-        <v>0.381779439024247</v>
+        <v>5.016603</v>
       </c>
       <c r="I20">
-        <v>0.1046961549513011</v>
+        <v>0.3559193894076904</v>
       </c>
       <c r="J20">
-        <v>0.1046961549513011</v>
+        <v>0.3559193894076904</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>26.1737723042941</v>
+        <v>50.45577166666666</v>
       </c>
       <c r="N20">
-        <v>26.1737723042941</v>
+        <v>151.367315</v>
       </c>
       <c r="O20">
-        <v>0.1113266536609365</v>
+        <v>0.18996722124408</v>
       </c>
       <c r="P20">
-        <v>0.1113266536609365</v>
+        <v>0.1899672212440799</v>
       </c>
       <c r="Q20">
-        <v>9.992608107481773</v>
+        <v>84.37219183677166</v>
       </c>
       <c r="R20">
-        <v>9.992608107481773</v>
+        <v>759.349726530945</v>
       </c>
       <c r="S20">
-        <v>0.01165547258189524</v>
+        <v>0.06761301739266858</v>
       </c>
       <c r="T20">
-        <v>0.01165547258189524</v>
+        <v>0.06761301739266856</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,61 +1706,61 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.381779439024247</v>
+        <v>1.672201</v>
       </c>
       <c r="H21">
-        <v>0.381779439024247</v>
+        <v>5.016603</v>
       </c>
       <c r="I21">
-        <v>0.1046961549513011</v>
+        <v>0.3559193894076904</v>
       </c>
       <c r="J21">
-        <v>0.1046961549513011</v>
+        <v>0.3559193894076904</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>148.258515378317</v>
+        <v>149.2656146666667</v>
       </c>
       <c r="N21">
-        <v>148.258515378317</v>
+        <v>447.796844</v>
       </c>
       <c r="O21">
-        <v>0.6305978443580588</v>
+        <v>0.5619887102876124</v>
       </c>
       <c r="P21">
-        <v>0.6305978443580588</v>
+        <v>0.5619887102876123</v>
       </c>
       <c r="Q21">
-        <v>56.60205283170156</v>
+        <v>249.6021101112147</v>
       </c>
       <c r="R21">
-        <v>56.60205283170156</v>
+        <v>2246.418991000932</v>
       </c>
       <c r="S21">
-        <v>0.06602116962486779</v>
+        <v>0.2000226786195824</v>
       </c>
       <c r="T21">
-        <v>0.06602116962486779</v>
+        <v>0.2000226786195824</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,61 +1768,61 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.381779439024247</v>
+        <v>1.672201</v>
       </c>
       <c r="H22">
-        <v>0.381779439024247</v>
+        <v>5.016603</v>
       </c>
       <c r="I22">
-        <v>0.1046961549513011</v>
+        <v>0.3559193894076904</v>
       </c>
       <c r="J22">
-        <v>0.1046961549513011</v>
+        <v>0.3559193894076904</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>11.7503247625346</v>
+        <v>13.28522433333333</v>
       </c>
       <c r="N22">
-        <v>11.7503247625346</v>
+        <v>39.855673</v>
       </c>
       <c r="O22">
-        <v>0.04997844101469479</v>
+        <v>0.05001919635439596</v>
       </c>
       <c r="P22">
-        <v>0.04997844101469479</v>
+        <v>0.05001919635439595</v>
       </c>
       <c r="Q22">
-        <v>4.486032396193178</v>
+        <v>22.21556541542433</v>
       </c>
       <c r="R22">
-        <v>4.486032396193178</v>
+        <v>199.940088738819</v>
       </c>
       <c r="S22">
-        <v>0.005232550604698949</v>
+        <v>0.01780280182511998</v>
       </c>
       <c r="T22">
-        <v>0.005232550604698949</v>
+        <v>0.01780280182511998</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,61 +1830,61 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.381779439024247</v>
+        <v>1.672201</v>
       </c>
       <c r="H23">
-        <v>0.381779439024247</v>
+        <v>5.016603</v>
       </c>
       <c r="I23">
-        <v>0.1046961549513011</v>
+        <v>0.3559193894076904</v>
       </c>
       <c r="J23">
-        <v>0.1046961549513011</v>
+        <v>0.3559193894076904</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>17.0931556709254</v>
+        <v>17.42465066666666</v>
       </c>
       <c r="N23">
-        <v>17.0931556709254</v>
+        <v>52.27395199999999</v>
       </c>
       <c r="O23">
-        <v>0.07270346051865775</v>
+        <v>0.06560423830525379</v>
       </c>
       <c r="P23">
-        <v>0.07270346051865775</v>
+        <v>0.06560423830525378</v>
       </c>
       <c r="Q23">
-        <v>6.525815383200025</v>
+        <v>29.13751826945066</v>
       </c>
       <c r="R23">
-        <v>6.525815383200025</v>
+        <v>262.237664425056</v>
       </c>
       <c r="S23">
-        <v>0.007611772767957195</v>
+        <v>0.02334982044016254</v>
       </c>
       <c r="T23">
-        <v>0.007611772767957195</v>
+        <v>0.02334982044016254</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,61 +1892,61 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="C24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.381779439024247</v>
+        <v>1.672201</v>
       </c>
       <c r="H24">
-        <v>0.381779439024247</v>
+        <v>5.016603</v>
       </c>
       <c r="I24">
-        <v>0.1046961549513011</v>
+        <v>0.3559193894076904</v>
       </c>
       <c r="J24">
-        <v>0.1046961549513011</v>
+        <v>0.3559193894076904</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>3.79529511732927</v>
+        <v>3.820091</v>
       </c>
       <c r="N24">
-        <v>3.79529511732927</v>
+        <v>11.460273</v>
       </c>
       <c r="O24">
-        <v>0.016142782177357</v>
+        <v>0.01438273656706242</v>
       </c>
       <c r="P24">
-        <v>0.016142782177357</v>
+        <v>0.01438273656706242</v>
       </c>
       <c r="Q24">
-        <v>1.448965640825432</v>
+        <v>6.387959990291001</v>
       </c>
       <c r="R24">
-        <v>1.448965640825432</v>
+        <v>57.491639912619</v>
       </c>
       <c r="S24">
-        <v>0.00169008722418567</v>
+        <v>0.005119094816960519</v>
       </c>
       <c r="T24">
-        <v>0.00169008722418567</v>
+        <v>0.005119094816960518</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,61 +1954,805 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1.672201</v>
+      </c>
+      <c r="H25">
+        <v>5.016603</v>
+      </c>
+      <c r="I25">
+        <v>0.3559193894076904</v>
+      </c>
+      <c r="J25">
+        <v>0.3559193894076904</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>31.35116233333333</v>
+      </c>
+      <c r="N25">
+        <v>94.053487</v>
+      </c>
+      <c r="O25">
+        <v>0.1180378972415954</v>
+      </c>
+      <c r="P25">
+        <v>0.1180378972415954</v>
+      </c>
+      <c r="Q25">
+        <v>52.42544500496233</v>
+      </c>
+      <c r="R25">
+        <v>471.829005044661</v>
+      </c>
+      <c r="S25">
+        <v>0.04201197631319633</v>
+      </c>
+      <c r="T25">
+        <v>0.04201197631319633</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
         <v>24</v>
       </c>
-      <c r="C25" t="s">
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>1.050331666666666</v>
+      </c>
+      <c r="H26">
+        <v>3.150995</v>
+      </c>
+      <c r="I26">
+        <v>0.223557697594704</v>
+      </c>
+      <c r="J26">
+        <v>0.223557697594704</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>50.45577166666666</v>
+      </c>
+      <c r="N26">
+        <v>151.367315</v>
+      </c>
+      <c r="O26">
+        <v>0.18996722124408</v>
+      </c>
+      <c r="P26">
+        <v>0.1899672212440799</v>
+      </c>
+      <c r="Q26">
+        <v>52.99529474760276</v>
+      </c>
+      <c r="R26">
+        <v>476.9576527284249</v>
+      </c>
+      <c r="S26">
+        <v>0.04246863459979027</v>
+      </c>
+      <c r="T26">
+        <v>0.04246863459979026</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>1.050331666666666</v>
+      </c>
+      <c r="H27">
+        <v>3.150995</v>
+      </c>
+      <c r="I27">
+        <v>0.223557697594704</v>
+      </c>
+      <c r="J27">
+        <v>0.223557697594704</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>149.2656146666667</v>
+      </c>
+      <c r="N27">
+        <v>447.796844</v>
+      </c>
+      <c r="O27">
+        <v>0.5619887102876124</v>
+      </c>
+      <c r="P27">
+        <v>0.5619887102876123</v>
+      </c>
+      <c r="Q27">
+        <v>156.7784018288644</v>
+      </c>
+      <c r="R27">
+        <v>1411.00561645978</v>
+      </c>
+      <c r="S27">
+        <v>0.1256369021461158</v>
+      </c>
+      <c r="T27">
+        <v>0.1256369021461158</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>1.050331666666666</v>
+      </c>
+      <c r="H28">
+        <v>3.150995</v>
+      </c>
+      <c r="I28">
+        <v>0.223557697594704</v>
+      </c>
+      <c r="J28">
+        <v>0.223557697594704</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>13.28522433333333</v>
+      </c>
+      <c r="N28">
+        <v>39.855673</v>
+      </c>
+      <c r="O28">
+        <v>0.05001919635439596</v>
+      </c>
+      <c r="P28">
+        <v>0.05001919635439595</v>
+      </c>
+      <c r="Q28">
+        <v>13.95389181607055</v>
+      </c>
+      <c r="R28">
+        <v>125.585026344635</v>
+      </c>
+      <c r="S28">
+        <v>0.01118217637252618</v>
+      </c>
+      <c r="T28">
+        <v>0.01118217637252617</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>1.050331666666666</v>
+      </c>
+      <c r="H29">
+        <v>3.150995</v>
+      </c>
+      <c r="I29">
+        <v>0.223557697594704</v>
+      </c>
+      <c r="J29">
+        <v>0.223557697594704</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>17.42465066666666</v>
+      </c>
+      <c r="N29">
+        <v>52.27395199999999</v>
+      </c>
+      <c r="O29">
+        <v>0.06560423830525379</v>
+      </c>
+      <c r="P29">
+        <v>0.06560423830525378</v>
+      </c>
+      <c r="Q29">
+        <v>18.30166237580444</v>
+      </c>
+      <c r="R29">
+        <v>164.7149613822399</v>
+      </c>
+      <c r="S29">
+        <v>0.01466633246797683</v>
+      </c>
+      <c r="T29">
+        <v>0.01466633246797682</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>1.050331666666666</v>
+      </c>
+      <c r="H30">
+        <v>3.150995</v>
+      </c>
+      <c r="I30">
+        <v>0.223557697594704</v>
+      </c>
+      <c r="J30">
+        <v>0.223557697594704</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>3.820091</v>
+      </c>
+      <c r="N30">
+        <v>11.460273</v>
+      </c>
+      <c r="O30">
+        <v>0.01438273656706242</v>
+      </c>
+      <c r="P30">
+        <v>0.01438273656706242</v>
+      </c>
+      <c r="Q30">
+        <v>4.012362546848332</v>
+      </c>
+      <c r="R30">
+        <v>36.111262921635</v>
+      </c>
+      <c r="S30">
+        <v>0.003215371472043633</v>
+      </c>
+      <c r="T30">
+        <v>0.003215371472043632</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>1.050331666666666</v>
+      </c>
+      <c r="H31">
+        <v>3.150995</v>
+      </c>
+      <c r="I31">
+        <v>0.223557697594704</v>
+      </c>
+      <c r="J31">
+        <v>0.223557697594704</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>31.35116233333333</v>
+      </c>
+      <c r="N31">
+        <v>94.053487</v>
+      </c>
+      <c r="O31">
+        <v>0.1180378972415954</v>
+      </c>
+      <c r="P31">
+        <v>0.1180378972415954</v>
+      </c>
+      <c r="Q31">
+        <v>32.92911858550722</v>
+      </c>
+      <c r="R31">
+        <v>296.362067269565</v>
+      </c>
+      <c r="S31">
+        <v>0.02638828053625134</v>
+      </c>
+      <c r="T31">
+        <v>0.02638828053625133</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>0.7427696666666667</v>
+      </c>
+      <c r="H32">
+        <v>2.228309</v>
+      </c>
+      <c r="I32">
+        <v>0.1580947064560742</v>
+      </c>
+      <c r="J32">
+        <v>0.1580947064560742</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>50.45577166666666</v>
+      </c>
+      <c r="N32">
+        <v>151.367315</v>
+      </c>
+      <c r="O32">
+        <v>0.18996722124408</v>
+      </c>
+      <c r="P32">
+        <v>0.1899672212440799</v>
+      </c>
+      <c r="Q32">
+        <v>37.47701670225944</v>
+      </c>
+      <c r="R32">
+        <v>337.293150320335</v>
+      </c>
+      <c r="S32">
+        <v>0.03003281207885893</v>
+      </c>
+      <c r="T32">
+        <v>0.03003281207885892</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>0.7427696666666667</v>
+      </c>
+      <c r="H33">
+        <v>2.228309</v>
+      </c>
+      <c r="I33">
+        <v>0.1580947064560742</v>
+      </c>
+      <c r="J33">
+        <v>0.1580947064560742</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>149.2656146666667</v>
+      </c>
+      <c r="N33">
+        <v>447.796844</v>
+      </c>
+      <c r="O33">
+        <v>0.5619887102876124</v>
+      </c>
+      <c r="P33">
+        <v>0.5619887102876123</v>
+      </c>
+      <c r="Q33">
+        <v>110.8699708507551</v>
+      </c>
+      <c r="R33">
+        <v>997.8297376567959</v>
+      </c>
+      <c r="S33">
+        <v>0.08884744018454781</v>
+      </c>
+      <c r="T33">
+        <v>0.08884744018454778</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>0.7427696666666667</v>
+      </c>
+      <c r="H34">
+        <v>2.228309</v>
+      </c>
+      <c r="I34">
+        <v>0.1580947064560742</v>
+      </c>
+      <c r="J34">
+        <v>0.1580947064560742</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>13.28522433333333</v>
+      </c>
+      <c r="N34">
+        <v>39.855673</v>
+      </c>
+      <c r="O34">
+        <v>0.05001919635439596</v>
+      </c>
+      <c r="P34">
+        <v>0.05001919635439595</v>
+      </c>
+      <c r="Q34">
+        <v>9.867861649661888</v>
+      </c>
+      <c r="R34">
+        <v>88.81075484695698</v>
+      </c>
+      <c r="S34">
+        <v>0.007907770164816965</v>
+      </c>
+      <c r="T34">
+        <v>0.007907770164816964</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
         <v>23</v>
       </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>0.381779439024247</v>
-      </c>
-      <c r="H25">
-        <v>0.381779439024247</v>
-      </c>
-      <c r="I25">
-        <v>0.1046961549513011</v>
-      </c>
-      <c r="J25">
-        <v>0.1046961549513011</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>28.0368057591466</v>
-      </c>
-      <c r="N25">
-        <v>28.0368057591466</v>
-      </c>
-      <c r="O25">
-        <v>0.1192508182702952</v>
-      </c>
-      <c r="P25">
-        <v>0.1192508182702952</v>
-      </c>
-      <c r="Q25">
-        <v>10.70387597475877</v>
-      </c>
-      <c r="R25">
-        <v>10.70387597475877</v>
-      </c>
-      <c r="S25">
-        <v>0.01248510214769628</v>
-      </c>
-      <c r="T25">
-        <v>0.01248510214769628</v>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>0.7427696666666667</v>
+      </c>
+      <c r="H35">
+        <v>2.228309</v>
+      </c>
+      <c r="I35">
+        <v>0.1580947064560742</v>
+      </c>
+      <c r="J35">
+        <v>0.1580947064560742</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>17.42465066666666</v>
+      </c>
+      <c r="N35">
+        <v>52.27395199999999</v>
+      </c>
+      <c r="O35">
+        <v>0.06560423830525379</v>
+      </c>
+      <c r="P35">
+        <v>0.06560423830525378</v>
+      </c>
+      <c r="Q35">
+        <v>12.94250196746311</v>
+      </c>
+      <c r="R35">
+        <v>116.482517707168</v>
+      </c>
+      <c r="S35">
+        <v>0.01037168279714343</v>
+      </c>
+      <c r="T35">
+        <v>0.01037168279714343</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>0.7427696666666667</v>
+      </c>
+      <c r="H36">
+        <v>2.228309</v>
+      </c>
+      <c r="I36">
+        <v>0.1580947064560742</v>
+      </c>
+      <c r="J36">
+        <v>0.1580947064560742</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>3.820091</v>
+      </c>
+      <c r="N36">
+        <v>11.460273</v>
+      </c>
+      <c r="O36">
+        <v>0.01438273656706242</v>
+      </c>
+      <c r="P36">
+        <v>0.01438273656706242</v>
+      </c>
+      <c r="Q36">
+        <v>2.837447718706334</v>
+      </c>
+      <c r="R36">
+        <v>25.537029468357</v>
+      </c>
+      <c r="S36">
+        <v>0.002273834515604778</v>
+      </c>
+      <c r="T36">
+        <v>0.002273834515604777</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>0.7427696666666667</v>
+      </c>
+      <c r="H37">
+        <v>2.228309</v>
+      </c>
+      <c r="I37">
+        <v>0.1580947064560742</v>
+      </c>
+      <c r="J37">
+        <v>0.1580947064560742</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>31.35116233333333</v>
+      </c>
+      <c r="N37">
+        <v>94.053487</v>
+      </c>
+      <c r="O37">
+        <v>0.1180378972415954</v>
+      </c>
+      <c r="P37">
+        <v>0.1180378972415954</v>
+      </c>
+      <c r="Q37">
+        <v>23.28669239594256</v>
+      </c>
+      <c r="R37">
+        <v>209.580231563483</v>
+      </c>
+      <c r="S37">
+        <v>0.01866116671510227</v>
+      </c>
+      <c r="T37">
+        <v>0.01866116671510227</v>
       </c>
     </row>
   </sheetData>
